--- a/data/trans_orig/Q15_2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q15_2-Habitat-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>0.02405180666871865</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.03543432117254999</v>
+        <v>0.03543432117255</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.0216889790052804</v>
@@ -681,7 +681,7 @@
         <v>0.02801785267476399</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.03402795138016629</v>
+        <v>0.03402795138016628</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.02659460226082108</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02007465376047097</v>
+        <v>0.02013071432914046</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0104519996867351</v>
+        <v>0.01040657456705301</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01365632479450427</v>
+        <v>0.01408904333897667</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01768412889529545</v>
+        <v>0.01750379775425103</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01205320737791725</v>
+        <v>0.01271249980929738</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02474370888255355</v>
+        <v>0.02508878035795066</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01687173432737368</v>
+        <v>0.01701233629532828</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02424157089689127</v>
+        <v>0.02333071045709116</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01945255321615488</v>
+        <v>0.01891778308390753</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02016914585266446</v>
+        <v>0.02025589389064773</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01875002852625203</v>
+        <v>0.01835765501983856</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02500439576502366</v>
+        <v>0.02493073527236482</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04657384275579603</v>
+        <v>0.04827071357997192</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03063436400792585</v>
+        <v>0.02931925600182685</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03720509769565613</v>
+        <v>0.03694634823011419</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08132474640120824</v>
+        <v>0.07819899867119912</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03405830038854289</v>
+        <v>0.03661777401714116</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06243238596111367</v>
+        <v>0.05915134018128785</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.0439630324168275</v>
+        <v>0.04405497160358423</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04772848314840109</v>
+        <v>0.0471738970355941</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03601051281281471</v>
+        <v>0.0366320117723394</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03987324794615889</v>
+        <v>0.03993800492461909</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03577210638116466</v>
+        <v>0.03625810030306498</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.05835990658106315</v>
+        <v>0.05666840777537046</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02779330522646916</v>
+        <v>0.02946221693773386</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01992686594238816</v>
+        <v>0.02064643641766456</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02251208003051147</v>
+        <v>0.02234223501719458</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02360529812417244</v>
+        <v>0.02418724269252246</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02111342516476012</v>
+        <v>0.02107541339262045</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02200583814951239</v>
+        <v>0.02167025795634259</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01572565466748982</v>
+        <v>0.01574591822254106</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02142971216792177</v>
+        <v>0.02098337161448248</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02734089498721636</v>
+        <v>0.0280465315468473</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02314373563941257</v>
+        <v>0.02336131272634644</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02106115121011545</v>
+        <v>0.02163055637127202</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02508877280614769</v>
+        <v>0.02458946109671322</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05444995158523729</v>
+        <v>0.05733740950459797</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04143872794043364</v>
+        <v>0.04395877877262836</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04535597144180742</v>
+        <v>0.04462554381449689</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.08679654512802182</v>
+        <v>0.07704698141844979</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.043994266687667</v>
+        <v>0.04379387983767907</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0462650277948232</v>
+        <v>0.04742577992452265</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03857683005918774</v>
+        <v>0.03869422766274837</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04484269584932284</v>
+        <v>0.04540542364609523</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04489965069835597</v>
+        <v>0.04532321426960741</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.04044683338998467</v>
+        <v>0.03994091033443001</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03906120751822828</v>
+        <v>0.03692684426784776</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.05515978297452219</v>
+        <v>0.05342015524687685</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>0.01343960034833325</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.03526240388496936</v>
+        <v>0.03526240388496937</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.03393255024628906</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02042846324463858</v>
+        <v>0.02087799646406323</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01607683481179488</v>
+        <v>0.01553647135459066</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0093788659983893</v>
+        <v>0.009216452495823372</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.00996643388763036</v>
+        <v>0.009905193490148184</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02262308582130349</v>
+        <v>0.02294466899983621</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01612282972622424</v>
+        <v>0.01543701572868763</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.00671630052118245</v>
+        <v>0.006620349921818304</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02339725889578298</v>
+        <v>0.02358685387392836</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02411854399200941</v>
+        <v>0.02511243245692598</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01801769650742208</v>
+        <v>0.01835147769406346</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01011874512224016</v>
+        <v>0.01029399863830957</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01946942665371552</v>
+        <v>0.0195008181258299</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04827093112906285</v>
+        <v>0.04914050579775216</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04065999507803355</v>
+        <v>0.03891954864227483</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0355742104070071</v>
+        <v>0.03323922951960309</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03287452581924052</v>
+        <v>0.032582140922375</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05382964717507802</v>
+        <v>0.05308677889031081</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04277197634863231</v>
+        <v>0.03991713461836088</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02355922979650581</v>
+        <v>0.02387842287053562</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.05222573599479196</v>
+        <v>0.05285398420526718</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04410747359732839</v>
+        <v>0.04609984559239881</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03528170057356505</v>
+        <v>0.03471985778180163</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02466860564070579</v>
+        <v>0.02533232908954479</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03732795359199235</v>
+        <v>0.03645988499516663</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02382982295035362</v>
+        <v>0.02404467081663813</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02728228261377898</v>
+        <v>0.02808519593407616</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02009178318173128</v>
+        <v>0.02066496033881942</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01068549952109561</v>
+        <v>0.01134096341398081</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01128429798257598</v>
+        <v>0.01171122399054929</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01322805795814177</v>
+        <v>0.01371321068777276</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02199824933294309</v>
+        <v>0.02255203592583836</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0187417362806045</v>
+        <v>0.01995779811161683</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01954986537862536</v>
+        <v>0.01985595121715255</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02295045302734619</v>
+        <v>0.02270452665134874</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02375869719507708</v>
+        <v>0.02479016939228627</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01742994599196104</v>
+        <v>0.01745439131638614</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04779385371788233</v>
+        <v>0.0473576844003158</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0583654803652125</v>
+        <v>0.05756052598663887</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04851905268982742</v>
+        <v>0.04714077315046543</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02775148400712903</v>
+        <v>0.02960084289014888</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02933437828028158</v>
+        <v>0.02931691101837633</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03442428236141533</v>
+        <v>0.03235077662128012</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04580162088533729</v>
+        <v>0.04772585079976752</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03979541810061866</v>
+        <v>0.04162182675315073</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0353902308410009</v>
+        <v>0.03530254991801945</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04035857810106378</v>
+        <v>0.04149205106762061</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.04100295751872474</v>
+        <v>0.04136782099228264</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03081381884609419</v>
+        <v>0.03115330036424373</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1237,7 @@
         <v>0.02629667609185174</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.02991882845759533</v>
+        <v>0.02991882845759531</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02898512042542526</v>
+        <v>0.02833757401958699</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02422572262813119</v>
+        <v>0.02418310232647984</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02187646429132508</v>
+        <v>0.02153013701519191</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01999720716370805</v>
+        <v>0.02123184564255736</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02128344198704389</v>
+        <v>0.02125226576188163</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02279376212921106</v>
+        <v>0.02304603838569797</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.0197299554598118</v>
+        <v>0.02021126054932927</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02574160470221613</v>
+        <v>0.02621756098626296</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02625722132472932</v>
+        <v>0.02663167260052028</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02500217870059641</v>
+        <v>0.02486820562373286</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.02242191537878683</v>
+        <v>0.02234047411835091</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02542475503701554</v>
+        <v>0.02540161896374034</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04196238575823196</v>
+        <v>0.04256357165521018</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03664433556149696</v>
+        <v>0.03636190452472516</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03406785161785184</v>
+        <v>0.03332279556072419</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04050258900231032</v>
+        <v>0.04244925122318187</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03313768095169301</v>
+        <v>0.03283375383606094</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03503512578932171</v>
+        <v>0.03553418573503586</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.03175498039211487</v>
+        <v>0.03159032243786142</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03745025366954969</v>
+        <v>0.03873923704906284</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03460871515325969</v>
+        <v>0.03484482005015143</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03376173600994834</v>
+        <v>0.0342685396285512</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03038933710069749</v>
+        <v>0.03024648338919782</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.03660602890491138</v>
+        <v>0.03733960352202007</v>
       </c>
     </row>
     <row r="19">
